--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1830803.47014247</v>
+        <v>1893422.329406209</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6538758.560422713</v>
+        <v>5301029.811029743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3353501.821537509</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7202958.85630956</v>
+        <v>7584666.200839769</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>181.5448872019592</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>384.8774717948093</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -817,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>50.63388649156</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>92.25608675391889</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>69.90798579419391</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>146.6830776852447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.75184443562456</v>
+        <v>25.45099468012255</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -1139,10 +1141,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -1190,16 +1192,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>51.88854173693095</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>377.1216231871071</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>30.46089948436289</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>224.508595795419</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1370,10 +1372,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>17.17431980783296</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1385,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1433,7 +1435,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>39.64108301376388</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1528,25 +1530,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>146.9568991155872</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>165.4216953850582</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>296.1646844502384</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1613,19 +1615,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>372.3536886992978</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>227.5041307701016</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.4216953850582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1862,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>49.12308702887178</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2002,10 +2004,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>72.87346090363384</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.9383353088699</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,10 +2086,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2099,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>343.2559819443612</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>100.8330519902541</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2327,13 +2329,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>380.3593268106412</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>282.1353944293379</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>36.45020302297358</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
@@ -2530,16 +2532,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>109.7790781370304</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2555,10 +2557,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>49.02746394088942</v>
       </c>
       <c r="D26" t="n">
-        <v>362.5761659788956</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2567,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2716,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>113.3520697882989</v>
+        <v>81.1549583480613</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2795,7 +2797,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>91.8634291666399</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2807,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2849,7 +2851,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>211.6544656203724</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2953,19 +2955,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>154.0313569259916</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>43.4510291887099</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3040,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>59.82422708687625</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3047,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3095,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>300.7823595432042</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3192,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>54.58762608748891</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>25.89026429995027</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>364.054132580644</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3317,7 +3319,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -3326,7 +3328,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>157.4229911737221</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3427,22 +3429,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>48.20649381210165</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>166.4059404676605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3554,16 +3556,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>245.2379843596716</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>160.6804894878781</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>66.89256983317868</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3791,22 +3793,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>61.19483262914688</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>364.6399937545928</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3903,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -3910,7 +3912,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -3952,10 +3954,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>49.50250968729328</v>
+        <v>8.522152635936354</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>218.1247287958589</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3983,10 +3985,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -3995,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4034,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>110.7938400030224</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4135,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>6.290917238643778</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>263.0856825270674</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>888.3313057386429</v>
+        <v>332.990926276226</v>
       </c>
       <c r="C2" t="n">
-        <v>882.247119092317</v>
+        <v>326.9067396299002</v>
       </c>
       <c r="D2" t="n">
-        <v>477.7831891853775</v>
+        <v>326.4832137633648</v>
       </c>
       <c r="E2" t="n">
-        <v>63.44297370227418</v>
+        <v>316.1834023206656</v>
       </c>
       <c r="F2" t="n">
-        <v>46.45296569636579</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4343,10 +4345,10 @@
         <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1846.479361096332</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4355,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X2" t="n">
-        <v>1699.489158455042</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y2" t="n">
-        <v>1298.552485403132</v>
+        <v>339.1717019003114</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4415,22 @@
         <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922355</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="M3" t="n">
-        <v>537.7254774811266</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N3" t="n">
-        <v>1054.568412147452</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O3" t="n">
-        <v>1571.411346813777</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>639.6001036836846</v>
+        <v>592.1650041644873</v>
       </c>
       <c r="C4" t="n">
-        <v>639.6001036836846</v>
+        <v>421.0716317262038</v>
       </c>
       <c r="D4" t="n">
-        <v>639.6001036836846</v>
+        <v>421.0716317262038</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>260.1608165945233</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>260.1608165945233</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>92.9104255200667</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>92.9104255200667</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4513,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1052.035508688964</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>1052.035508688964</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W4" t="n">
-        <v>1052.035508688964</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X4" t="n">
-        <v>1052.035508688964</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="Y4" t="n">
-        <v>827.2998100777289</v>
+        <v>779.8647105585317</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2432.11149918228</v>
+        <v>636.5689113792441</v>
       </c>
       <c r="C5" t="n">
-        <v>2021.98690849555</v>
+        <v>226.4443206925142</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.522978588611</v>
+        <v>226.0207948259788</v>
       </c>
       <c r="E5" t="n">
-        <v>1203.182763105508</v>
+        <v>215.7209833832796</v>
       </c>
       <c r="F5" t="n">
-        <v>782.1523510591951</v>
+        <v>198.7309753773712</v>
       </c>
       <c r="G5" t="n">
-        <v>373.4240669520272</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>62.51556957974518</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>62.51556957974518</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>62.51556957974518</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>600.6750706887847</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1313.266470501023</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1313.266470501023</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1631.82991785571</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>2275.460774272815</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>2804.617472191967</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>3125.778478987259</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>3125.778478987259</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2990.49740378136</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2990.49740378136</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2990.49740378136</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V5" t="n">
-        <v>2990.49740378136</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W5" t="n">
-        <v>2990.49740378136</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="X5" t="n">
-        <v>2990.49740378136</v>
+        <v>1046.790091043734</v>
       </c>
       <c r="Y5" t="n">
-        <v>2842.332678846769</v>
+        <v>1046.790091043734</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>741.3464114662795</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>607.3513402152253</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>490.4541824346177</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>369.9613664269457</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>261.0014866094502</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>154.0113739237889</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>83.26416095950501</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>62.51556957974518</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>255.3284271423784</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>255.3284271423784</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>916.4165990616666</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1690.046772611013</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N6" t="n">
-        <v>1690.046772611013</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O6" t="n">
-        <v>2079.445246067615</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P6" t="n">
-        <v>2079.445246067615</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2079.445246067615</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>2109.004765430245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>2001.014755544554</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1841.672891731562</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1644.322080869781</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1430.610553862815</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1217.377385599144</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1041.051403738036</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>881.6494441018662</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020.742307396752</v>
+        <v>555.1290119472964</v>
       </c>
       <c r="C7" t="n">
-        <v>1849.648934958469</v>
+        <v>555.1290119472964</v>
       </c>
       <c r="D7" t="n">
-        <v>1849.648934958469</v>
+        <v>395.6343672702064</v>
       </c>
       <c r="E7" t="n">
-        <v>1849.648934958469</v>
+        <v>234.7235521385259</v>
       </c>
       <c r="F7" t="n">
-        <v>1685.01780906906</v>
+        <v>234.7235521385259</v>
       </c>
       <c r="G7" t="n">
-        <v>1685.01780906906</v>
+        <v>67.47316106406927</v>
       </c>
       <c r="H7" t="n">
-        <v>1685.01780906906</v>
+        <v>67.47316106406927</v>
       </c>
       <c r="I7" t="n">
-        <v>1596.379582366409</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>1610.46213177162</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>1765.014459493858</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>2024.911559773918</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>2314.175616214412</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>2595.014398608662</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>2854.575008935136</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>3060.250449184748</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>3125.778478987259</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>3040.505760662659</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>3040.505760662659</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>3040.505760662659</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>2757.707613208783</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>2483.821868148304</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W7" t="n">
-        <v>2483.821868148304</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X7" t="n">
-        <v>2245.478006007988</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="Y7" t="n">
-        <v>2020.742307396752</v>
+        <v>555.1290119472964</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1399.473956412117</v>
+        <v>2144.705157697622</v>
       </c>
       <c r="C8" t="n">
-        <v>989.349365725387</v>
+        <v>1734.580567010892</v>
       </c>
       <c r="D8" t="n">
-        <v>584.8854358184475</v>
+        <v>1330.116637103952</v>
       </c>
       <c r="E8" t="n">
-        <v>574.5856243757482</v>
+        <v>915.7764216208491</v>
       </c>
       <c r="F8" t="n">
-        <v>557.5956163698398</v>
+        <v>494.7460095745366</v>
       </c>
       <c r="G8" t="n">
-        <v>148.867332262672</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H8" t="n">
-        <v>148.867332262672</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>316.7010410474995</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>316.7010410474995</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1029.292440859738</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>1802.922614409084</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>2556.103631047702</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>3085.221833297694</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>3085.221833297694</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>3085.221833297694</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>3125.778478987259</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>3125.778478987259</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>2903.571994934118</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>2646.511503193628</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>2594.098834772486</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>2210.338533907654</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="X8" t="n">
-        <v>1809.695136076606</v>
+        <v>2935.857269874341</v>
       </c>
       <c r="Y8" t="n">
-        <v>1809.695136076606</v>
+        <v>2554.926337362112</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>741.3464114662795</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>607.3513402152253</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>490.4541824346177</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>369.9613664269457</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>261.0014866094502</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>154.0113739237889</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>83.26416095950501</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>518.3218258450439</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>518.3218258450439</v>
+        <v>747.105897386657</v>
       </c>
       <c r="M9" t="n">
-        <v>1291.95199939439</v>
+        <v>747.105897386657</v>
       </c>
       <c r="N9" t="n">
-        <v>1291.95199939439</v>
+        <v>837.2844189208142</v>
       </c>
       <c r="O9" t="n">
-        <v>1547.298872941715</v>
+        <v>1541.241509466709</v>
       </c>
       <c r="P9" t="n">
-        <v>2109.004765430245</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="Q9" t="n">
-        <v>2109.004765430245</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
-        <v>2109.004765430245</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2001.014755544554</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1841.672891731562</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1644.322080869781</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1430.610553862815</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1217.377385599144</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1041.051403738036</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>881.6494441018662</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>429.0086532451777</v>
+        <v>421.742223795061</v>
       </c>
       <c r="C10" t="n">
-        <v>257.9152808068942</v>
+        <v>250.6488513567775</v>
       </c>
       <c r="D10" t="n">
-        <v>227.1466954691539</v>
+        <v>250.6488513567775</v>
       </c>
       <c r="E10" t="n">
-        <v>227.1466954691539</v>
+        <v>250.6488513567775</v>
       </c>
       <c r="F10" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>76.5981189849557</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>231.1504467071937</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>491.0475469872542</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>780.3116034277475</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1061.150385821998</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1320.710996148472</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1526.386436398084</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1591.914466200595</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1591.914466200595</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1405.522698080506</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1165.973959057208</v>
+        <v>1116.975776254216</v>
       </c>
       <c r="U10" t="n">
-        <v>1165.973959057208</v>
+        <v>834.1776288003407</v>
       </c>
       <c r="V10" t="n">
-        <v>892.0882139967296</v>
+        <v>834.1776288003407</v>
       </c>
       <c r="W10" t="n">
-        <v>892.0882139967296</v>
+        <v>834.1776288003407</v>
       </c>
       <c r="X10" t="n">
-        <v>653.744351856413</v>
+        <v>834.1776288003407</v>
       </c>
       <c r="Y10" t="n">
-        <v>429.0086532451777</v>
+        <v>609.4419301891054</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1323.962279002019</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C11" t="n">
-        <v>1306.614481216329</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D11" t="n">
-        <v>1306.614481216329</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E11" t="n">
-        <v>892.2742657332255</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F11" t="n">
-        <v>471.243853686913</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G11" t="n">
-        <v>62.51556957974518</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>62.51556957974518</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>202.1883868803864</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>914.7797866926244</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1688.409960241971</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.590976880589</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3085.221833297694</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3085.221833297694</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3085.221833297694</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3125.778478987259</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3125.778478987259</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3125.778478987259</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>2868.717987246769</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2518.88043258325</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2135.120131718418</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2135.120131718418</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y11" t="n">
-        <v>1734.183458666508</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>741.3464114662795</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>607.3513402152253</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>490.4541824346177</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>369.9613664269457</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>261.0014866094502</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>154.0113739237889</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>83.26416095950501</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>62.51556957974518</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>723.6037414990334</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M12" t="n">
-        <v>723.6037414990334</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N12" t="n">
-        <v>1497.23391504838</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="O12" t="n">
-        <v>2109.004765430245</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P12" t="n">
-        <v>2109.004765430245</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2109.004765430245</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2001.014755544554</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1841.672891731562</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1644.322080869781</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1430.610553862815</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1217.377385599144</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1041.051403738036</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>881.6494441018662</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1151.849419880882</v>
+        <v>406.3161358179984</v>
       </c>
       <c r="C13" t="n">
-        <v>980.7560474425982</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D13" t="n">
-        <v>821.2614027655081</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E13" t="n">
-        <v>660.3505876338277</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F13" t="n">
-        <v>495.7194617444189</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>328.4690706699624</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>178.861615475419</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>76.5981189849557</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>231.1504467071937</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>491.0475469872542</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>780.3116034277475</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1061.150385821998</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1320.710996148472</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1526.386436398084</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1591.914466200595</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1506.641747875995</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1506.641747875995</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1506.641747875995</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>1506.641747875995</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V13" t="n">
-        <v>1506.641747875995</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W13" t="n">
-        <v>1506.641747875995</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="X13" t="n">
-        <v>1339.549126274926</v>
+        <v>594.0158422120428</v>
       </c>
       <c r="Y13" t="n">
-        <v>1339.549126274926</v>
+        <v>594.0158422120428</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1291.444305656518</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>881.319714969788</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>476.8557850628485</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>62.51556957974518</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F14" t="n">
-        <v>62.51556957974518</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G14" t="n">
-        <v>62.51556957974518</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>62.51556957974518</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>62.51556957974518</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>385.6230887734728</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>385.6230887734728</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1159.253262322819</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>1912.434278961437</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2556.065135378542</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3085.221833297694</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3085.221833297694</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3125.778478987259</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3125.778478987259</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3125.778478987259</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>3125.778478987259</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>2775.94092432374</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2392.180623458908</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>1991.537225627861</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>1590.600552575951</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>741.3464114662795</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>607.3513402152253</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>490.4541824346177</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>369.9613664269457</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>261.0014866094502</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>154.0113739237889</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>83.26416095950501</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>62.51556957974518</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>62.51556957974518</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M15" t="n">
-        <v>631.4175013350043</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="N15" t="n">
-        <v>1405.047674884351</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O15" t="n">
-        <v>2109.004765430245</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P15" t="n">
-        <v>2109.004765430245</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q15" t="n">
-        <v>2109.004765430245</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2001.014755544554</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1841.672891731562</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1644.322080869781</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1430.610553862815</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1217.377385599144</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1041.051403738036</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>881.6494441018662</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1151.849419880882</v>
+        <v>413.9445253234496</v>
       </c>
       <c r="C16" t="n">
-        <v>980.7560474425982</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="D16" t="n">
-        <v>821.2614027655081</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E16" t="n">
-        <v>660.3505876338277</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F16" t="n">
-        <v>495.7194617444189</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G16" t="n">
-        <v>328.4690706699624</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H16" t="n">
-        <v>178.861615475419</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>76.5981189849557</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>231.1504467071937</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>491.0475469872542</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>780.3116034277475</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1061.150385821998</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1320.710996148472</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1526.386436398084</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1591.914466200595</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1506.641747875995</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1506.641747875995</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1506.641747875995</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U16" t="n">
-        <v>1506.641747875995</v>
+        <v>966.8999348750533</v>
       </c>
       <c r="V16" t="n">
-        <v>1506.641747875995</v>
+        <v>693.0141898145753</v>
       </c>
       <c r="W16" t="n">
-        <v>1506.641747875995</v>
+        <v>413.9445253234496</v>
       </c>
       <c r="X16" t="n">
-        <v>1506.641747875995</v>
+        <v>413.9445253234496</v>
       </c>
       <c r="Y16" t="n">
-        <v>1339.549126274926</v>
+        <v>413.9445253234496</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>862.4997589972158</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>453.771474890048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>142.862977517766</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5597,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M18" t="n">
-        <v>844.5103911440685</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N18" t="n">
-        <v>844.5103911440685</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>505.1970176716799</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>334.1036452333964</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.702087168085</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U19" t="n">
-        <v>1196.702087168085</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V19" t="n">
-        <v>1196.702087168085</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="W19" t="n">
-        <v>917.6324226769595</v>
+        <v>515.2245508613034</v>
       </c>
       <c r="X19" t="n">
-        <v>917.6324226769595</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="Y19" t="n">
-        <v>692.8967240657242</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.251106699488</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5837,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1124.934470981593</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>953.8410985433093</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5935,25 +5937,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>1537.369875986873</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>1537.369875986873</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V22" t="n">
-        <v>1537.369875986873</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W22" t="n">
-        <v>1537.369875986873</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X22" t="n">
-        <v>1537.369875986873</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y22" t="n">
-        <v>1312.634177375637</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5968,19 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1697.773797548872</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1283.433582065768</v>
       </c>
       <c r="F23" t="n">
-        <v>873.3089913790386</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>464.5807072718708</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
         <v>179.5954603735497</v>
@@ -6072,22 +6074,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>886.6708173828915</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>578.280283388802</v>
+        <v>460.6501016978888</v>
       </c>
       <c r="C25" t="n">
-        <v>578.280283388802</v>
+        <v>289.5567292596053</v>
       </c>
       <c r="D25" t="n">
-        <v>418.7856387117121</v>
+        <v>130.0620845825153</v>
       </c>
       <c r="E25" t="n">
-        <v>257.8748235800315</v>
+        <v>130.0620845825153</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>130.0620845825153</v>
       </c>
       <c r="G25" t="n">
         <v>93.2436976906228</v>
@@ -6169,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U25" t="n">
-        <v>913.9039397142094</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V25" t="n">
-        <v>913.9039397142094</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W25" t="n">
-        <v>803.0159820000373</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="X25" t="n">
-        <v>803.0159820000373</v>
+        <v>873.0855067031684</v>
       </c>
       <c r="Y25" t="n">
-        <v>578.280283388802</v>
+        <v>648.3498080919331</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6205,22 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1325.874585275247</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>911.5343697921442</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>490.5039577458317</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C27" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D27" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E27" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F27" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G27" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H27" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>3046.677436812732</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>3750.634527358626</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>4312.340419847156</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S27" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T27" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U27" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V27" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W27" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X27" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y27" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>640.9446300454975</v>
+        <v>324.8258582872483</v>
       </c>
       <c r="C28" t="n">
-        <v>640.9446300454975</v>
+        <v>324.8258582872483</v>
       </c>
       <c r="D28" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E28" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6406,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>1383.093855288175</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V28" t="n">
-        <v>1383.093855288175</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W28" t="n">
-        <v>1104.024190797049</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="X28" t="n">
-        <v>865.6803286567329</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="Y28" t="n">
-        <v>640.9446300454975</v>
+        <v>324.8258582872483</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2237.518802661711</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C29" t="n">
-        <v>1827.394211974981</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.080354073989</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W29" t="n">
-        <v>3449.320053209158</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X29" t="n">
-        <v>3048.67665537811</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y29" t="n">
-        <v>2647.7399823262</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>385.2054556740427</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>385.2054556740427</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.182536368609</v>
+        <v>886.6708173828915</v>
       </c>
       <c r="N30" t="n">
-        <v>1228.182536368609</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O30" t="n">
-        <v>1228.182536368609</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P30" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4105.773792315753</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C31" t="n">
-        <v>3934.680419877469</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3775.185775200379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3614.274960068698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>4576.912166206539</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>4337.363427183242</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>4337.363427183242</v>
+        <v>955.8421396253117</v>
       </c>
       <c r="V31" t="n">
-        <v>4337.363427183242</v>
+        <v>955.8421396253117</v>
       </c>
       <c r="W31" t="n">
-        <v>4337.363427183242</v>
+        <v>676.772475134186</v>
       </c>
       <c r="X31" t="n">
-        <v>4293.473498709797</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y31" t="n">
-        <v>4293.473498709797</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6734,16 +6736,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3663.876532666778</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3263.23313483573</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6785,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>1597.308950304478</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N33" t="n">
-        <v>1597.308950304478</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O33" t="n">
-        <v>1597.308950304478</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P33" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
         <v>2110.173374178493</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4112.627728572006</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C34" t="n">
-        <v>3941.534356133723</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3782.039711456633</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3621.128896324952</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>4576.912166206539</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>4337.363427183242</v>
+        <v>1324.826325745621</v>
       </c>
       <c r="U34" t="n">
-        <v>4337.363427183242</v>
+        <v>1042.028178291745</v>
       </c>
       <c r="V34" t="n">
-        <v>4337.363427183242</v>
+        <v>768.1424332312672</v>
       </c>
       <c r="W34" t="n">
-        <v>4337.363427183242</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="X34" t="n">
-        <v>4337.363427183242</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="Y34" t="n">
-        <v>4112.627728572006</v>
+        <v>264.3370701289063</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D35" t="n">
         <v>1734.602869382415</v>
@@ -6965,22 +6967,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>3920.005762921231</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1820.802819284162</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1820.802819284162</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>901.6003762066769</v>
+        <v>590.2873592492926</v>
       </c>
       <c r="C37" t="n">
-        <v>730.5070037683934</v>
+        <v>419.1939868110092</v>
       </c>
       <c r="D37" t="n">
-        <v>571.0123590913033</v>
+        <v>419.1939868110092</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1015439596227</v>
+        <v>258.2831716793286</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V37" t="n">
-        <v>1348.756849250995</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W37" t="n">
-        <v>1069.687184759869</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X37" t="n">
-        <v>1069.687184759869</v>
+        <v>590.2873592492926</v>
       </c>
       <c r="Y37" t="n">
-        <v>901.6003762066769</v>
+        <v>590.2873592492926</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7175,7 +7177,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7202,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="39">
@@ -7260,13 +7262,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>526.4475898552967</v>
+        <v>3790.308655650302</v>
       </c>
       <c r="C40" t="n">
-        <v>526.4475898552967</v>
+        <v>3619.215283212019</v>
       </c>
       <c r="D40" t="n">
-        <v>526.4475898552967</v>
+        <v>3459.720638534929</v>
       </c>
       <c r="E40" t="n">
-        <v>526.4475898552967</v>
+        <v>3459.720638534929</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>3295.08951264552</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I40" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J40" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K40" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L40" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M40" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N40" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O40" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="U40" t="n">
-        <v>1043.861116486739</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="V40" t="n">
-        <v>1043.861116486739</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="W40" t="n">
-        <v>764.7914519956132</v>
+        <v>4015.044354261538</v>
       </c>
       <c r="X40" t="n">
-        <v>526.4475898552967</v>
+        <v>4015.044354261538</v>
       </c>
       <c r="Y40" t="n">
-        <v>526.4475898552967</v>
+        <v>3790.308655650302</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2518.463261865207</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C41" t="n">
-        <v>2108.338671178477</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D41" t="n">
-        <v>1703.874741271537</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E41" t="n">
-        <v>1289.534525788434</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>868.5041137421218</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>459.775829634954</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>148.867332262672</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>62.51556957974518</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>600.6750706887847</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1313.266470501023</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>2086.896644050369</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2840.077660688987</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3125.778478987259</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3125.778478987259</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3125.778478987259</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3125.778478987259</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>2990.49740378136</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>2990.49740378136</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>2990.49740378136</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>2990.49740378136</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>2990.49740378136</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2928.684441529696</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2928.684441529696</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>741.3464114662795</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>607.3513402152253</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>490.4541824346177</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>369.9613664269457</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>261.0014866094502</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>154.0113739237889</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>83.26416095950501</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>62.51556957974518</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>631.4175013350043</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M42" t="n">
-        <v>631.4175013350043</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N42" t="n">
-        <v>1405.047674884351</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O42" t="n">
-        <v>2109.004765430245</v>
+        <v>1253.007044501816</v>
       </c>
       <c r="P42" t="n">
-        <v>2109.004765430245</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2001.014755544554</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1841.672891731562</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1644.322080869781</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1430.610553862815</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1217.377385599144</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1041.051403738036</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>881.6494441018662</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2526.218787990455</v>
+        <v>4054.869447136969</v>
       </c>
       <c r="C43" t="n">
-        <v>2355.125415552172</v>
+        <v>3883.776074698686</v>
       </c>
       <c r="D43" t="n">
-        <v>2355.125415552172</v>
+        <v>3724.281430021596</v>
       </c>
       <c r="E43" t="n">
-        <v>2194.214600420491</v>
+        <v>3563.370614889915</v>
       </c>
       <c r="F43" t="n">
-        <v>2029.583474531083</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="G43" t="n">
-        <v>1862.333083456626</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H43" t="n">
-        <v>1712.725628262083</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I43" t="n">
-        <v>1596.379582366409</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>1610.46213177162</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>1765.014459493858</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>2024.911559773918</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>2314.175616214412</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>2595.014398608662</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>2854.575008935136</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>3060.250449184748</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>3125.778478987259</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>3040.505760662659</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S43" t="n">
-        <v>3040.505760662659</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T43" t="n">
-        <v>2800.957021639361</v>
+        <v>4337.363427183242</v>
       </c>
       <c r="U43" t="n">
-        <v>2750.954486601691</v>
+        <v>4328.755192197447</v>
       </c>
       <c r="V43" t="n">
-        <v>2750.954486601691</v>
+        <v>4054.869447136969</v>
       </c>
       <c r="W43" t="n">
-        <v>2750.954486601691</v>
+        <v>4054.869447136969</v>
       </c>
       <c r="X43" t="n">
-        <v>2750.954486601691</v>
+        <v>4054.869447136969</v>
       </c>
       <c r="Y43" t="n">
-        <v>2526.218787990455</v>
+        <v>4054.869447136969</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1596.740871652864</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1186.616280966135</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>782.1523510591951</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>782.1523510591951</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>782.1523510591951</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>373.4240669520272</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>62.51556957974518</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>62.51556957974518</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>62.51556957974518</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>105.0187276677458</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>878.6489012170924</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1631.82991785571</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2275.460774272815</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2804.617472191967</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3125.778478987259</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3125.778478987259</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3125.778478987259</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2903.571994934118</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>2903.571994934118</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V44" t="n">
-        <v>2903.571994934118</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W44" t="n">
-        <v>2519.811694069286</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X44" t="n">
-        <v>2407.898724369264</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y44" t="n">
-        <v>2006.962051317354</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>741.3464114662795</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C45" t="n">
-        <v>607.3513402152253</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D45" t="n">
-        <v>490.4541824346177</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E45" t="n">
-        <v>369.9613664269457</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F45" t="n">
-        <v>261.0014866094502</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G45" t="n">
-        <v>154.0113739237889</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H45" t="n">
-        <v>83.26416095950501</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I45" t="n">
-        <v>62.51556957974518</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J45" t="n">
-        <v>255.3284271423784</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K45" t="n">
-        <v>255.3284271423784</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="L45" t="n">
-        <v>255.3284271423784</v>
+        <v>3469.596718162561</v>
       </c>
       <c r="M45" t="n">
-        <v>1028.958600691725</v>
+        <v>3608.383329301262</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.588774241072</v>
+        <v>3608.383329301262</v>
       </c>
       <c r="O45" t="n">
-        <v>1802.588774241072</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="P45" t="n">
-        <v>2079.445246067615</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="Q45" t="n">
-        <v>2079.445246067615</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R45" t="n">
-        <v>2109.004765430245</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S45" t="n">
-        <v>2001.014755544554</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T45" t="n">
-        <v>1841.672891731562</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U45" t="n">
-        <v>1644.322080869781</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V45" t="n">
-        <v>1430.610553862815</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W45" t="n">
-        <v>1217.377385599144</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X45" t="n">
-        <v>1041.051403738036</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y45" t="n">
-        <v>881.6494441018662</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>676.7000236652491</v>
+        <v>3405.093950857723</v>
       </c>
       <c r="C46" t="n">
-        <v>505.6066512269656</v>
+        <v>3405.093950857723</v>
       </c>
       <c r="D46" t="n">
-        <v>346.1120065498756</v>
+        <v>3405.093950857723</v>
       </c>
       <c r="E46" t="n">
-        <v>346.1120065498756</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="F46" t="n">
-        <v>346.1120065498756</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="G46" t="n">
-        <v>178.861615475419</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H46" t="n">
-        <v>178.861615475419</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I46" t="n">
-        <v>62.51556957974518</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>76.5981189849557</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>231.1504467071937</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>491.0475469872542</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>780.3116034277475</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1061.150385821998</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1320.710996148472</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1526.386436398084</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1591.914466200595</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1591.914466200595</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S46" t="n">
-        <v>1405.522698080506</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T46" t="n">
-        <v>1405.522698080506</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U46" t="n">
-        <v>1139.779584416801</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V46" t="n">
-        <v>1139.779584416801</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="W46" t="n">
-        <v>1139.779584416801</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="X46" t="n">
-        <v>901.4357222764844</v>
+        <v>3629.829649468958</v>
       </c>
       <c r="Y46" t="n">
-        <v>676.7000236652491</v>
+        <v>3405.093950857723</v>
       </c>
     </row>
   </sheetData>
@@ -7991,13 +7993,13 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>296.9001458002834</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8061,25 +8063,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>363.773914333257</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>499.2964884458369</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>414.6935507108493</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>839.0089034852322</v>
+        <v>266.8093398682832</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>451.0832703703051</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,25 +8455,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>874.7348442038602</v>
+        <v>519.8012871361426</v>
       </c>
       <c r="N8" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>627.6526061813306</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8532,19 +8534,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>839.0089034852322</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>144.2828090848179</v>
       </c>
       <c r="O9" t="n">
-        <v>315.6776138962877</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
@@ -8553,7 +8555,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>230.2200435122487</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M11" t="n">
-        <v>874.7348442038602</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8705,10 +8707,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8769,19 +8771,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>834.6380131405647</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>675.7018329210761</v>
+        <v>752.1609013342966</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8790,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>415.5076211820329</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>874.7348442038602</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -8945,7 +8947,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9006,28 +9008,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>632.2126996528207</v>
+        <v>356.0091697870508</v>
       </c>
       <c r="N15" t="n">
-        <v>834.6380131405647</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9179,7 +9181,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
@@ -9243,28 +9245,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>389.0116646475603</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>148.6536994294856</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,25 +9485,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>191.4271838211926</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,25 +9722,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>191.2399885596099</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,10 +9953,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
@@ -9963,10 +9965,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>488.5284925170752</v>
+        <v>514.5673383305425</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
@@ -9975,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10193,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>350.7366494345345</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>398.595458917175</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,22 +10433,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>572.3045076028192</v>
+        <v>144.6334018173235</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10601,7 +10603,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
@@ -10662,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>346.553124795057</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10908,16 +10910,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>675.0496721821739</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11066,22 +11068,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>874.7348442038602</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>381.7764607755526</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>630.7629397252523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>834.6380131405647</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>596.5640636445446</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>138.4178809800172</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>874.7348442038602</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11318,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,25 +11381,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>839.0089034852322</v>
+        <v>197.7527798381155</v>
       </c>
       <c r="N45" t="n">
-        <v>834.6380131405647</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>333.9126368477973</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>388.8490249720296</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>22.42553959831346</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -23476,10 +23478,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>70.53872813385524</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>109.9542834176061</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>52.46603520923551</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.06664624006473</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>36.36515802722579</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>85.02623732668523</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23902,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>4.022088210043563</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23972,10 +23974,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.083197172522887</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>57.06664624006501</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24215,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>36.46078111520814</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>25.66401796922128</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>129.1276841407384</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>166.499889709184</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24443,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="D26" t="n">
-        <v>37.84312462897446</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>44.5476284420202</v>
+        <v>76.74473988225778</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24613,13 +24615,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24886,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>125.9388090533455</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>192.5093943302035</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24926,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.14494677818664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>108.3971885430257</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>211.2629873331146</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>42.06483528720059</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25205,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25214,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>222.499706682461</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>114.778320818413</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>56.08240115746241</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25442,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>134.6847134965115</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.897397675833872</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>213.0775961461584</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25679,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>335.4421312235901</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>32.28731256679805</v>
       </c>
     </row>
     <row r="42">
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>230.4676562920438</v>
+        <v>271.4480133434007</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25852,7 +25854,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>187.9942390719857</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,13 +25924,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>285.8431238497146</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>153.0107897417199</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>16.88448345226971</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>712094.9704201287</v>
+        <v>710051.1525514636</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>712094.9704201287</v>
+        <v>714409.8140773026</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>506892.8342830727</v>
+        <v>637471.8810073707</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>506892.8342830727</v>
+        <v>637471.8810073707</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>637471.8810073705</v>
+        <v>637471.8810073708</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>637471.8810073707</v>
+        <v>637471.8810073705</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>637471.8810073704</v>
+        <v>637471.8810073707</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637471.8810073707</v>
+        <v>637471.8810073705</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>506892.8342830727</v>
+        <v>637471.8810073707</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506892.8342830727</v>
+        <v>637471.8810073705</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>439782.4611876336</v>
+        <v>439782.4611876338</v>
       </c>
       <c r="C2" t="n">
         <v>439782.4611876337</v>
       </c>
       <c r="D2" t="n">
-        <v>439782.4611876337</v>
+        <v>439782.4611876338</v>
       </c>
       <c r="E2" t="n">
-        <v>310934.6082643661</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="F2" t="n">
-        <v>310934.6082643662</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="G2" t="n">
-        <v>391025.7011723768</v>
+        <v>391025.7011723767</v>
       </c>
       <c r="H2" t="n">
         <v>391025.7011723768</v>
       </c>
       <c r="I2" t="n">
+        <v>391025.7011723769</v>
+      </c>
+      <c r="J2" t="n">
+        <v>391025.7011723767</v>
+      </c>
+      <c r="K2" t="n">
         <v>391025.7011723768</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>391025.7011723769</v>
+      </c>
+      <c r="M2" t="n">
         <v>391025.7011723768</v>
       </c>
-      <c r="K2" t="n">
-        <v>391025.7011723769</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>391025.7011723767</v>
+      </c>
+      <c r="O2" t="n">
         <v>391025.7011723768</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>391025.7011723767</v>
-      </c>
-      <c r="N2" t="n">
-        <v>391025.7011723768</v>
-      </c>
-      <c r="O2" t="n">
-        <v>310934.6082643662</v>
-      </c>
-      <c r="P2" t="n">
-        <v>310934.6082643662</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
-        <v>83798.41355755916</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105276.4874158736</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
-        <v>66756.38191600547</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>164775.2337200961</v>
       </c>
       <c r="C4" t="n">
-        <v>121208.491727724</v>
+        <v>164775.2337200961</v>
       </c>
       <c r="D4" t="n">
-        <v>121208.491727724</v>
+        <v>71864.46850972369</v>
       </c>
       <c r="E4" t="n">
-        <v>12257.21438512744</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="F4" t="n">
-        <v>12257.21438512744</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="G4" t="n">
         <v>15465.37373706398</v>
@@ -26454,10 +26456,10 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>12257.21438512744</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="P4" t="n">
-        <v>12257.21438512744</v>
+        <v>15465.37373706398</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>81139.43288060633</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>81139.43288060633</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>47511.83288060634</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>47511.83288060634</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>47511.83288060634</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>47511.83288060634</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34682.65249592595</v>
+        <v>34682.65249592613</v>
       </c>
       <c r="C6" t="n">
-        <v>153636.1230217442</v>
+        <v>209638.1623890401</v>
       </c>
       <c r="D6" t="n">
-        <v>237434.5365793034</v>
+        <v>97089.45241264137</v>
       </c>
       <c r="E6" t="n">
-        <v>251165.5609986323</v>
+        <v>277726.1630095053</v>
       </c>
       <c r="F6" t="n">
-        <v>251165.5609986325</v>
+        <v>304695.1171904395</v>
       </c>
       <c r="G6" t="n">
-        <v>199418.6297745658</v>
+        <v>304695.1171904394</v>
       </c>
       <c r="H6" t="n">
         <v>304695.1171904395</v>
       </c>
       <c r="I6" t="n">
+        <v>304695.1171904396</v>
+      </c>
+      <c r="J6" t="n">
+        <v>168100.3163845444</v>
+      </c>
+      <c r="K6" t="n">
         <v>304695.1171904395</v>
       </c>
-      <c r="J6" t="n">
-        <v>168100.3163845445</v>
-      </c>
-      <c r="K6" t="n">
-        <v>237938.7352744342</v>
-      </c>
       <c r="L6" t="n">
+        <v>164695.8063256868</v>
+      </c>
+      <c r="M6" t="n">
+        <v>282185.8524163921</v>
+      </c>
+      <c r="N6" t="n">
+        <v>304695.1171904394</v>
+      </c>
+      <c r="O6" t="n">
         <v>304695.1171904395</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>304695.1171904394</v>
-      </c>
-      <c r="N6" t="n">
-        <v>304695.1171904395</v>
-      </c>
-      <c r="O6" t="n">
-        <v>251165.5609986324</v>
-      </c>
-      <c r="P6" t="n">
-        <v>251165.5609986324</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>781.4446197468147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>781.4446197468147</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>781.4446197468147</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>781.4446197468147</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>781.4446197468147</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>781.4446197468147</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>259.3810493767892</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>384.1016013859702</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>259.3810493767892</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>259.3810493767892</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>384.1016013859702</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>235.2752207238901</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>11.75949205792773</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>64.5486989451571</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>187.7140792254182</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>334.7330154719022</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>250.2442286361461</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>27.43074100109254</v>
+        <v>89.73159075659456</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27828,13 +27830,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27859,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>294.4506373799532</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>19.8056831342837</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>127.4387987459562</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>12.64465583764593</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34711,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>203.2507825193993</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34781,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>306.2096305948396</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>321.78125995423</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>781.4446197468147</v>
+        <v>209.2450561298658</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>393.331791370305</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>781.4446197468147</v>
+        <v>426.5110626790972</v>
       </c>
       <c r="N8" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>534.4628305555475</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>781.4446197468147</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>91.08941569106788</v>
       </c>
       <c r="O9" t="n">
-        <v>257.9261348962876</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>141.0836538390315</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M11" t="n">
-        <v>781.4446197468147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35425,10 +35427,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4446197468147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>617.950353921076</v>
+        <v>694.4094223342966</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>326.3712315088158</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>781.4446197468147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35665,7 +35667,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>574.6484159144032</v>
+        <v>298.4448860486334</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4446197468147</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35899,7 +35901,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
@@ -35963,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>91.08941569106823</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>133.6757048211926</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>133.6757048211925</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,10 +36685,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>435.3350991233252</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>567.3796893823536</v>
@@ -36695,7 +36697,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>294.9108666499191</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>341.0311751787576</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>518.0448726000154</v>
+        <v>90.3737668145198</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>29.85810036629282</v>
@@ -37321,7 +37323,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P35" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>292.2934897922533</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37628,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>617.2981931821739</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37786,22 +37788,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>781.4446197468147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>288.5866851497695</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>574.6484159144032</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>781.4446197468147</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>542.3044286417409</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>42.93248291717234</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>781.4446197468147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38038,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>781.4446197468147</v>
+        <v>140.1884960996981</v>
       </c>
       <c r="N45" t="n">
-        <v>781.4446197468147</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>279.6530018449935</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1893422.329406209</v>
+        <v>1892109.68395063</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029743</v>
+        <v>5301029.811029738</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789207</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>181.5448872019592</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>196.5522034490915</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>82.26954145708676</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.63388649156</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>69.90798579419391</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>74.00536571764091</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>25.45099468012255</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>65.42520756919141</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>233.8021579484958</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -1150,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1195,13 +1195,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>377.1216231871071</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1296,16 +1296,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>224.508595795419</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.68688746169084</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1384,13 +1384,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>39.64108301376388</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.9568991155872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>14.34419642363559</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>182.9557283947299</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>372.3536886992978</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>177.7858203400134</v>
       </c>
       <c r="U16" t="n">
-        <v>227.5041307701016</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>49.12308702887178</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>91.86342916663969</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>215.3211549079777</v>
       </c>
       <c r="X19" t="n">
-        <v>231.9383353088699</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,10 +2086,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>101.5800361006119</v>
       </c>
     </row>
     <row r="23">
@@ -2320,16 +2320,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>407.1136161557494</v>
       </c>
       <c r="F23" t="n">
-        <v>380.3593268106412</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>36.45020302297358</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>255.0426736753228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>49.02746394088942</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>81.1549583480613</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -2766,7 +2766,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>71.81480120941518</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2845,13 +2845,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V29" t="n">
-        <v>211.6544656203724</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>80.14874043258263</v>
       </c>
       <c r="U31" t="n">
-        <v>154.0313569259916</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3040,7 +3040,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3049,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>25.89026429995027</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -3249,7 +3249,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>200.7665139574148</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>364.054132580644</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>48.20649381210165</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>65.31383608752344</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>362.5761659788956</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3517,10 +3517,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3565,7 +3565,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>245.2379843596716</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3675,13 +3675,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>160.6804894878781</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>2.127201442764267</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3748,7 +3748,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>364.6399937545928</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3912,7 +3912,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>71.27423873582488</v>
       </c>
       <c r="U43" t="n">
-        <v>8.522152635936354</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>218.1247287958589</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>39.64108301376439</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4042,7 +4042,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>6.290917238643778</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -4185,10 +4185,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>71.27423873582488</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>484.2909016982387</v>
       </c>
       <c r="C2" t="n">
-        <v>326.9067396299002</v>
+        <v>478.2067150519129</v>
       </c>
       <c r="D2" t="n">
-        <v>326.4832137633648</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E2" t="n">
-        <v>316.1834023206656</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.636426430007</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O2" t="n">
-        <v>1329.636426430007</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4366,16 +4366,16 @@
         <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>1275.168651239065</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>891.408350374234</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>891.408350374234</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>490.4716773223241</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585607</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="M3" t="n">
-        <v>1268.263812524886</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N3" t="n">
-        <v>1268.263812524886</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>1268.263812524886</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
         <v>1708.850297433489</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>592.1650041644873</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="C4" t="n">
-        <v>421.0716317262038</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D4" t="n">
-        <v>421.0716317262038</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E4" t="n">
-        <v>260.1608165945233</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F4" t="n">
-        <v>260.1608165945233</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
-        <v>92.9104255200667</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>92.9104255200667</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1297.278237189974</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W4" t="n">
-        <v>1018.208572698848</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X4" t="n">
-        <v>779.8647105585317</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="Y4" t="n">
-        <v>779.8647105585317</v>
+        <v>777.1526093285881</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>636.5689113792441</v>
+        <v>2007.320611191733</v>
       </c>
       <c r="C5" t="n">
-        <v>226.4443206925142</v>
+        <v>1597.196020505003</v>
       </c>
       <c r="D5" t="n">
-        <v>226.0207948259788</v>
+        <v>1192.732090598064</v>
       </c>
       <c r="E5" t="n">
-        <v>215.7209833832796</v>
+        <v>778.3918751149603</v>
       </c>
       <c r="F5" t="n">
-        <v>198.7309753773712</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N5" t="n">
-        <v>1250.250340018485</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>2013.501386815818</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>2013.501386815818</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>2013.501386815818</v>
       </c>
       <c r="V5" t="n">
-        <v>1831.193789739612</v>
+        <v>2013.501386815818</v>
       </c>
       <c r="W5" t="n">
-        <v>1447.433488874781</v>
+        <v>2013.501386815818</v>
       </c>
       <c r="X5" t="n">
-        <v>1046.790091043734</v>
+        <v>2013.501386815818</v>
       </c>
       <c r="Y5" t="n">
-        <v>1046.790091043734</v>
+        <v>2013.501386815818</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1221.566882129793</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129793</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129793</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.1290119472964</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C7" t="n">
-        <v>555.1290119472964</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D7" t="n">
-        <v>395.6343672702064</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E7" t="n">
-        <v>234.7235521385259</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F7" t="n">
-        <v>234.7235521385259</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G7" t="n">
-        <v>67.47316106406927</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
-        <v>67.47316106406927</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1297.278237189974</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>1018.208572698848</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>779.8647105585317</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.1290119472964</v>
+        <v>158.1111315252759</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2144.705157697622</v>
+        <v>2363.788998177299</v>
       </c>
       <c r="C8" t="n">
-        <v>1734.580567010892</v>
+        <v>1953.664407490569</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.116637103952</v>
+        <v>1549.200477583629</v>
       </c>
       <c r="E8" t="n">
-        <v>915.7764216208491</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>494.7460095745366</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>86.01772546736876</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>86.01772546736876</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
         <v>86.01772546736876</v>
@@ -4813,13 +4813,13 @@
         <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>2013.200049908707</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>2766.381066547325</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>3410.01192296443</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
         <v>3939.168620883581</v>
@@ -4834,22 +4834,22 @@
         <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>3943.398714109398</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="U8" t="n">
-        <v>3686.338222368908</v>
+        <v>3908.544706422049</v>
       </c>
       <c r="V8" t="n">
-        <v>3336.500667705388</v>
+        <v>3558.70715175853</v>
       </c>
       <c r="W8" t="n">
-        <v>3336.500667705388</v>
+        <v>3174.946850893698</v>
       </c>
       <c r="X8" t="n">
-        <v>2935.857269874341</v>
+        <v>3174.946850893698</v>
       </c>
       <c r="Y8" t="n">
-        <v>2554.926337362112</v>
+        <v>2774.010177841788</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736876</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736876</v>
+        <v>278.830583030002</v>
       </c>
       <c r="L9" t="n">
-        <v>747.105897386657</v>
+        <v>585.5727500774076</v>
       </c>
       <c r="M9" t="n">
-        <v>747.105897386657</v>
+        <v>1428.549830771974</v>
       </c>
       <c r="N9" t="n">
-        <v>837.2844189208142</v>
+        <v>1428.549830771974</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.241509466709</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
-        <v>2102.947401955239</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2102.947401955239</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>421.742223795061</v>
+        <v>909.3980746782881</v>
       </c>
       <c r="C10" t="n">
-        <v>250.6488513567775</v>
+        <v>738.3047022400046</v>
       </c>
       <c r="D10" t="n">
-        <v>250.6488513567775</v>
+        <v>578.8100575629146</v>
       </c>
       <c r="E10" t="n">
-        <v>250.6488513567775</v>
+        <v>417.8992424312341</v>
       </c>
       <c r="F10" t="n">
-        <v>86.01772546736876</v>
+        <v>253.2681165418253</v>
       </c>
       <c r="G10" t="n">
         <v>86.01772546736876</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1116.975776254216</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>834.1776288003407</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>834.1776288003407</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>834.1776288003407</v>
+        <v>1560.177341823884</v>
       </c>
       <c r="X10" t="n">
-        <v>834.1776288003407</v>
+        <v>1321.833479683568</v>
       </c>
       <c r="Y10" t="n">
-        <v>609.4419301891054</v>
+        <v>1097.097781072333</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E11" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F11" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G11" t="n">
-        <v>404.1521950629048</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="H11" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5083,10 +5083,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N12" t="n">
-        <v>1422.708046067539</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O12" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
         <v>2110.173374178493</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>406.3161358179984</v>
+        <v>568.3930939062554</v>
       </c>
       <c r="C13" t="n">
-        <v>257.8748235800315</v>
+        <v>568.3930939062554</v>
       </c>
       <c r="D13" t="n">
-        <v>257.8748235800315</v>
+        <v>568.3930939062554</v>
       </c>
       <c r="E13" t="n">
-        <v>257.8748235800315</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="F13" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G13" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1111.429368843485</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>1111.429368843485</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W13" t="n">
-        <v>832.3597043523594</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="X13" t="n">
-        <v>594.0158422120428</v>
+        <v>582.8821812028571</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.0158422120428</v>
+        <v>568.3930939062554</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C14" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D14" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>1287.649206862142</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>866.6187948158295</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>844.5103911440685</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N15" t="n">
-        <v>844.5103911440685</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O15" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
         <v>2110.173374178493</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.9445253234496</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="C16" t="n">
-        <v>242.8511528851661</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="D16" t="n">
-        <v>242.8511528851661</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="E16" t="n">
-        <v>242.8511528851661</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F16" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G16" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5466,22 +5466,22 @@
         <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1196.702087168085</v>
+        <v>1256.669189484299</v>
       </c>
       <c r="U16" t="n">
-        <v>966.8999348750533</v>
+        <v>1256.669189484299</v>
       </c>
       <c r="V16" t="n">
-        <v>693.0141898145753</v>
+        <v>1256.669189484299</v>
       </c>
       <c r="W16" t="n">
-        <v>413.9445253234496</v>
+        <v>1256.669189484299</v>
       </c>
       <c r="X16" t="n">
-        <v>413.9445253234496</v>
+        <v>1256.669189484299</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.9445253234496</v>
+        <v>1031.933490873064</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2512.458907120301</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C17" t="n">
-        <v>2102.334316433571</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D17" t="n">
-        <v>1697.870386526632</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1283.530171043528</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>862.4997589972158</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>453.771474890048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>142.862977517766</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4569.393541938574</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4347.187057885433</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4090.126566144943</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3740.289011481424</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3356.528710616592</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>2955.885312785545</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>423.0977207349383</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.074801429505</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N18" t="n">
-        <v>2139.732893541123</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>895.138129657802</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5706,19 +5706,19 @@
         <v>1350.978107866783</v>
       </c>
       <c r="U19" t="n">
-        <v>1068.179960412907</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V19" t="n">
-        <v>794.2942153524291</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W19" t="n">
-        <v>515.2245508613034</v>
+        <v>1133.481991798119</v>
       </c>
       <c r="X19" t="n">
-        <v>280.9434040846672</v>
+        <v>895.138129657802</v>
       </c>
       <c r="Y19" t="n">
-        <v>280.9434040846672</v>
+        <v>895.138129657802</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.262653899312</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="21">
@@ -5837,22 +5837,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>754.331869609911</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1627.989961721529</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.2436976906228</v>
+        <v>872.0592776655355</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>700.9659052272521</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>541.471260550162</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>541.471260550162</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V22" t="n">
-        <v>554.7454763291312</v>
+        <v>1162.365081130905</v>
       </c>
       <c r="W22" t="n">
-        <v>275.6758118380055</v>
+        <v>1162.365081130905</v>
       </c>
       <c r="X22" t="n">
-        <v>93.2436976906228</v>
+        <v>1162.365081130905</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.2436976906228</v>
+        <v>1059.75898405958</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C23" t="n">
-        <v>2102.237727455811</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D23" t="n">
-        <v>1697.773797548872</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E23" t="n">
-        <v>1283.433582065768</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="24">
@@ -6071,25 +6071,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M24" t="n">
-        <v>886.6708173828915</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N24" t="n">
-        <v>1760.328909494509</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O24" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>460.6501016978888</v>
+        <v>571.0123590913033</v>
       </c>
       <c r="C25" t="n">
-        <v>289.5567292596053</v>
+        <v>571.0123590913033</v>
       </c>
       <c r="D25" t="n">
-        <v>130.0620845825153</v>
+        <v>571.0123590913033</v>
       </c>
       <c r="E25" t="n">
-        <v>130.0620845825153</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F25" t="n">
-        <v>130.0620845825153</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6180,19 +6180,19 @@
         <v>1111.429368843485</v>
       </c>
       <c r="U25" t="n">
-        <v>1111.429368843485</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V25" t="n">
-        <v>1111.429368843485</v>
+        <v>571.0123590913033</v>
       </c>
       <c r="W25" t="n">
-        <v>1111.429368843485</v>
+        <v>571.0123590913033</v>
       </c>
       <c r="X25" t="n">
-        <v>873.0855067031684</v>
+        <v>571.0123590913033</v>
       </c>
       <c r="Y25" t="n">
-        <v>648.3498080919331</v>
+        <v>571.0123590913033</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
         <v>2052.715036606428</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>741.8628115185547</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>741.8628115185547</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N27" t="n">
-        <v>1198.623017005979</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O27" t="n">
-        <v>1198.623017005979</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.8258582872483</v>
+        <v>569.5961886367127</v>
       </c>
       <c r="C28" t="n">
-        <v>324.8258582872483</v>
+        <v>569.5961886367127</v>
       </c>
       <c r="D28" t="n">
-        <v>242.8511528851661</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E28" t="n">
-        <v>242.8511528851661</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F28" t="n">
-        <v>242.8511528851661</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G28" t="n">
         <v>242.8511528851661</v>
@@ -6414,22 +6414,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U28" t="n">
-        <v>828.6312213896092</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V28" t="n">
-        <v>828.6312213896092</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="W28" t="n">
-        <v>549.5615568984836</v>
+        <v>995.6397571710736</v>
       </c>
       <c r="X28" t="n">
-        <v>549.5615568984836</v>
+        <v>757.295895030757</v>
       </c>
       <c r="Y28" t="n">
-        <v>324.8258582872483</v>
+        <v>757.295895030757</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2238.282892603803</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1828.158301917073</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6493,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.844444016082</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3450.08414315125</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>3049.440745320202</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2648.504072268292</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>886.6708173828915</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
         <v>1760.328909494509</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.3370701289063</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1541.684270642198</v>
       </c>
       <c r="U31" t="n">
-        <v>955.8421396253117</v>
+        <v>1258.886123188322</v>
       </c>
       <c r="V31" t="n">
-        <v>955.8421396253117</v>
+        <v>985.0003781278438</v>
       </c>
       <c r="W31" t="n">
-        <v>676.772475134186</v>
+        <v>705.9307136367181</v>
       </c>
       <c r="X31" t="n">
-        <v>676.772475134186</v>
+        <v>467.5868514964014</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.0367765229507</v>
+        <v>242.8511528851661</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>966.9017898022406</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>1670.858880348135</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
         <v>1760.328909494509</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T34" t="n">
-        <v>1324.826325745621</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U34" t="n">
-        <v>1042.028178291745</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V34" t="n">
-        <v>768.1424332312672</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W34" t="n">
-        <v>489.0727687401416</v>
+        <v>676.772475134186</v>
       </c>
       <c r="X34" t="n">
-        <v>489.0727687401416</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y34" t="n">
-        <v>264.3370701289063</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2144.727460069145</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>1734.602869382415</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E35" t="n">
         <v>1320.262653899312</v>
@@ -6937,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>286.056555253256</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>947.1447271725442</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M36" t="n">
-        <v>947.1447271725442</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N36" t="n">
-        <v>1820.802819284162</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O36" t="n">
-        <v>1820.802819284162</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>590.2873592492926</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C37" t="n">
-        <v>419.1939868110092</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D37" t="n">
-        <v>419.1939868110092</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E37" t="n">
-        <v>258.2831716793286</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F37" t="n">
-        <v>209.5897435862967</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G37" t="n">
-        <v>209.5897435862967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
         <v>209.5897435862967</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U37" t="n">
-        <v>828.6312213896092</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V37" t="n">
-        <v>828.6312213896092</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="W37" t="n">
-        <v>828.6312213896092</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="X37" t="n">
-        <v>590.2873592492926</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="Y37" t="n">
-        <v>590.2873592492926</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2238.282892603803</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>1828.158301917073</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1423.694372010133</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E38" t="n">
-        <v>1009.35415652703</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F38" t="n">
-        <v>588.3237444807176</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G38" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7177,7 +7177,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7213,13 +7213,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3450.08414315125</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3049.440745320202</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2648.504072268292</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>966.9017898022406</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3790.308655650302</v>
+        <v>1021.666732860079</v>
       </c>
       <c r="C40" t="n">
-        <v>3619.215283212019</v>
+        <v>850.5733604217953</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.720638534929</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.720638534929</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>3295.08951264552</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4576.912166206539</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>4576.912166206539</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U40" t="n">
-        <v>4294.114018752663</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V40" t="n">
-        <v>4294.114018752663</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W40" t="n">
-        <v>4015.044354261538</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="X40" t="n">
-        <v>4015.044354261538</v>
+        <v>1434.102137865359</v>
       </c>
       <c r="Y40" t="n">
-        <v>3790.308655650302</v>
+        <v>1209.366439254123</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2134.851174492981</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>1724.726583806251</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2545.072354157471</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M42" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>1253.007044501816</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
         <v>1789.888428857139</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4054.869447136969</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C43" t="n">
-        <v>3883.776074698686</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D43" t="n">
-        <v>3724.281430021596</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E43" t="n">
-        <v>3563.370614889915</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F43" t="n">
-        <v>3398.739489000507</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G43" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T43" t="n">
-        <v>4337.363427183242</v>
+        <v>1465.375695445635</v>
       </c>
       <c r="U43" t="n">
-        <v>4328.755192197447</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="V43" t="n">
-        <v>4054.869447136969</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="W43" t="n">
-        <v>4054.869447136969</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="X43" t="n">
-        <v>4054.869447136969</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="Y43" t="n">
-        <v>4054.869447136969</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2092.756534600129</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1688.29260469319</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1273.952389210086</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>852.921977163774</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>444.1936930566062</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>133.2851956843242</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7681,19 +7681,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3954.85977060858</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3571.099469743748</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>3170.456071912701</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y44" t="n">
-        <v>2769.519398860791</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>2808.508546243273</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>3469.596718162561</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M45" t="n">
-        <v>3608.383329301262</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>3608.383329301262</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>4312.340419847156</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>4312.340419847156</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3405.093950857723</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C46" t="n">
-        <v>3405.093950857723</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D46" t="n">
-        <v>3405.093950857723</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E46" t="n">
-        <v>3398.739489000507</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F46" t="n">
-        <v>3398.739489000507</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>4390.520398086449</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>4150.971659063151</v>
+        <v>1465.375695445635</v>
       </c>
       <c r="U46" t="n">
-        <v>3868.173511609275</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="V46" t="n">
-        <v>3868.173511609275</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="W46" t="n">
-        <v>3868.173511609275</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="X46" t="n">
-        <v>3629.829649468958</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="Y46" t="n">
-        <v>3405.093950857723</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
@@ -7993,16 +7993,16 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>494.5586588013271</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,19 +8063,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>502.6011371814506</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>499.2964884458369</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>549.1401736751965</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>534.7878950544006</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>266.8093398682832</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>73.48479305079361</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>519.8012871361426</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
         <v>853.701196452193</v>
@@ -8470,7 +8470,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>628.1510783507341</v>
+        <v>270.501948108868</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>365.9550965860062</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>144.2828090848179</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8771,7 +8771,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
@@ -8780,16 +8780,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1609013342966</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8932,13 +8932,13 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -9008,16 +9008,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>356.0091697870508</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
@@ -9026,7 +9026,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9181,10 +9181,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9245,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>389.0116646475603</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>174.1409094511112</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9485,25 +9485,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O21" t="n">
-        <v>191.4271838211926</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>191.2399885596099</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>75.97815626606008</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>514.5673383305425</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>398.595458917175</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10427,25 +10427,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>144.6334018173235</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10603,7 +10603,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
@@ -10664,10 +10664,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
@@ -10676,19 +10676,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>75.97815626606008</v>
       </c>
       <c r="P36" t="n">
-        <v>346.553124795057</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10834,7 +10834,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O38" t="n">
         <v>743.321953824879</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>675.0496721821739</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11080,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,13 +11138,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11153,10 +11153,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>596.5640636445446</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11375,25 +11375,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>197.7527798381155</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>37.84312462897446</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>22.42553959831346</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>208.1441452014873</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>223.0676163851327</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>59.36743129305148</v>
       </c>
       <c r="U16" t="n">
-        <v>52.46603520923551</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>36.36515802722579</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>42.06483528720045</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23946,16 +23946,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>60.95781293823663</v>
       </c>
       <c r="X19" t="n">
-        <v>4.022088210043563</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23974,10 +23974,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>55.35263051300456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>120.908305524511</v>
       </c>
     </row>
     <row r="23">
@@ -24208,16 +24208,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="F23" t="n">
-        <v>36.46078111520814</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>129.1276841407384</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>16.10421393455044</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>76.74473988225778</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24615,7 +24615,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>204.4641666367992</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V29" t="n">
-        <v>134.6847134965117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24855,7 +24855,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>157.0045112004823</v>
       </c>
       <c r="U31" t="n">
-        <v>125.9388090533455</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>211.2629873331146</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>75.51245388879957</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>42.06483528720059</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>42.06483528720054</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>114.778320818413</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>205.8330515223498</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>37.84312462897446</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>134.6847134965115</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>4.897397675833872</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>233.8332220761492</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.28731256679805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>165.87901289724</v>
       </c>
       <c r="U43" t="n">
-        <v>271.4480133434007</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>187.9942390719857</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>45.84716204233317</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>153.0107897417199</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>165.87901289724</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>637471.8810073707</v>
+        <v>637471.8810073704</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>637471.8810073708</v>
+        <v>637471.8810073705</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>637471.8810073707</v>
+        <v>637471.8810073705</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>637471.8810073705</v>
+        <v>637471.8810073707</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>637471.8810073707</v>
+        <v>637471.8810073708</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>637471.8810073707</v>
+        <v>637471.8810073708</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637471.8810073707</v>
+        <v>637471.8810073705</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637471.8810073705</v>
+        <v>637471.8810073707</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>637471.8810073705</v>
+        <v>637471.8810073707</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>439782.4611876338</v>
+        <v>439782.4611876337</v>
       </c>
       <c r="C2" t="n">
-        <v>439782.4611876337</v>
+        <v>439782.4611876336</v>
       </c>
       <c r="D2" t="n">
-        <v>439782.4611876338</v>
+        <v>439782.4611876339</v>
       </c>
       <c r="E2" t="n">
+        <v>391025.7011723767</v>
+      </c>
+      <c r="F2" t="n">
+        <v>391025.7011723767</v>
+      </c>
+      <c r="G2" t="n">
         <v>391025.7011723768</v>
-      </c>
-      <c r="F2" t="n">
-        <v>391025.7011723768</v>
-      </c>
-      <c r="G2" t="n">
-        <v>391025.7011723767</v>
       </c>
       <c r="H2" t="n">
         <v>391025.7011723768</v>
       </c>
       <c r="I2" t="n">
-        <v>391025.7011723769</v>
+        <v>391025.7011723767</v>
       </c>
       <c r="J2" t="n">
         <v>391025.7011723767</v>
       </c>
       <c r="K2" t="n">
+        <v>391025.7011723769</v>
+      </c>
+      <c r="L2" t="n">
         <v>391025.7011723768</v>
-      </c>
-      <c r="L2" t="n">
-        <v>391025.7011723769</v>
       </c>
       <c r="M2" t="n">
         <v>391025.7011723768</v>
       </c>
       <c r="N2" t="n">
-        <v>391025.7011723767</v>
+        <v>391025.7011723766</v>
       </c>
       <c r="O2" t="n">
         <v>391025.7011723768</v>
       </c>
       <c r="P2" t="n">
-        <v>391025.7011723767</v>
+        <v>391025.7011723769</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34682.65249592613</v>
+        <v>34682.65249592598</v>
       </c>
       <c r="C6" t="n">
-        <v>209638.1623890401</v>
+        <v>209638.16238904</v>
       </c>
       <c r="D6" t="n">
-        <v>97089.45241264137</v>
+        <v>97089.45241264146</v>
       </c>
       <c r="E6" t="n">
-        <v>277726.1630095053</v>
+        <v>277545.5824168561</v>
       </c>
       <c r="F6" t="n">
-        <v>304695.1171904395</v>
+        <v>304514.5365977903</v>
       </c>
       <c r="G6" t="n">
-        <v>304695.1171904394</v>
+        <v>304514.5365977904</v>
       </c>
       <c r="H6" t="n">
-        <v>304695.1171904395</v>
+        <v>304514.5365977904</v>
       </c>
       <c r="I6" t="n">
-        <v>304695.1171904396</v>
+        <v>304514.5365977903</v>
       </c>
       <c r="J6" t="n">
-        <v>168100.3163845444</v>
+        <v>167919.7357918953</v>
       </c>
       <c r="K6" t="n">
-        <v>304695.1171904395</v>
+        <v>304514.5365977905</v>
       </c>
       <c r="L6" t="n">
-        <v>164695.8063256868</v>
+        <v>164515.2257330377</v>
       </c>
       <c r="M6" t="n">
-        <v>282185.8524163921</v>
+        <v>282005.271823743</v>
       </c>
       <c r="N6" t="n">
-        <v>304695.1171904394</v>
+        <v>304514.5365977903</v>
       </c>
       <c r="O6" t="n">
-        <v>304695.1171904395</v>
+        <v>304514.5365977904</v>
       </c>
       <c r="P6" t="n">
-        <v>304695.1171904394</v>
+        <v>304514.5365977905</v>
       </c>
     </row>
   </sheetData>
@@ -27390,16 +27390,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>235.2752207238901</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>149.7869756677926</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>87.11289725681389</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>64.5486989451571</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7330154719022</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>59.92289873619923</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27779,22 +27779,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>89.73159075659456</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>170.535215949722</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>176.3946553797765</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.8056831342837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>12.64465583764593</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>221.5920803845235</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
+        <v>500.9700927793178</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>445.0368534430332</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>445.0368534430332</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>460.0037840019794</v>
+      </c>
+      <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>209.2450561298658</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>426.5110626790972</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
         <v>760.7889056955737</v>
@@ -35190,7 +35190,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>534.50171506985</v>
+        <v>176.8525848279838</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>309.8405727751572</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>91.08941569106788</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O12" t="n">
-        <v>694.4094223342966</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35652,13 +35652,13 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>298.4448860486334</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
@@ -35746,7 +35746,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35901,10 +35901,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O21" t="n">
-        <v>133.6757048211926</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>133.6757048211925</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P27" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>341.0311751787576</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>90.3737668145198</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37323,7 +37323,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P35" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="P36" t="n">
-        <v>292.2934897922533</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37554,7 +37554,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O38" t="n">
         <v>650.1321781990958</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>617.2981931821739</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37800,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>542.3044286417409</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>140.1884960996981</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
